--- a/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table16.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891A5D9E-CD13-F241-B152-32C559AADC1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D96EC3B-EC70-A946-A56C-1AD179B91343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20360" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,12 +512,12 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -539,10 +539,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>5111534</v>
